--- a/data/trans_dic/P17A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17A-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2863060495273463</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.174834190154473</v>
+        <v>0.1748341901544731</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3110350931956555</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1567187184592537</v>
+        <v>0.1547665549518497</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2205447545361841</v>
+        <v>0.2210569786174462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.252479229906949</v>
+        <v>0.2531904979350877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1470953638169404</v>
+        <v>0.1481351862977921</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2760834003991936</v>
+        <v>0.2769719115048394</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.303470657798358</v>
+        <v>0.3065344863744357</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3310608155847877</v>
+        <v>0.3335478438198379</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2228034917006189</v>
+        <v>0.2202419869741336</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2220182156716895</v>
+        <v>0.2232408000061139</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2731790409966859</v>
+        <v>0.2747770838328977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.305154164607168</v>
+        <v>0.3007910739300229</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1939777163544996</v>
+        <v>0.1918448695970696</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2135158523959525</v>
+        <v>0.2130248323164534</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2928125199669642</v>
+        <v>0.2891407908493299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3211312238073314</v>
+        <v>0.3229844641967445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2049750878655368</v>
+        <v>0.2063108798733033</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3474089153013646</v>
+        <v>0.3484191618579434</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.375316316036234</v>
+        <v>0.3824146740233949</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4078550737101848</v>
+        <v>0.4099421800884924</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2741441125259452</v>
+        <v>0.2714840790347338</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2712078619933852</v>
+        <v>0.2703011051051941</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.324927476940768</v>
+        <v>0.3245563377699083</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3554165889104779</v>
+        <v>0.3530241852464615</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2321452855336225</v>
+        <v>0.2326904784413272</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1732194343525487</v>
+        <v>0.1755712100103877</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2097892542977194</v>
+        <v>0.2071515137603318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2323998761937219</v>
+        <v>0.233199043424715</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1680363155268466</v>
+        <v>0.1704776021374193</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2871064085666682</v>
+        <v>0.2875097492628866</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.316069715599653</v>
+        <v>0.3166216250604407</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3106974831096321</v>
+        <v>0.3116967278806664</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2067212096961276</v>
+        <v>0.207790909472335</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.239054076592869</v>
+        <v>0.2386645162592777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2689338388488074</v>
+        <v>0.2692055964879135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2801786726776138</v>
+        <v>0.281472587105033</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.194861090555847</v>
+        <v>0.194605278864383</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2278825811364082</v>
+        <v>0.2277665977870182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2640637918565796</v>
+        <v>0.2601086182874263</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2901014867630877</v>
+        <v>0.2916433765161182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2202171785046638</v>
+        <v>0.2240390188808221</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3493131777673432</v>
+        <v>0.3517753036673116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3743500750181433</v>
+        <v>0.3738667109383914</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3713284342701982</v>
+        <v>0.3739113205092242</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2520470188954841</v>
+        <v>0.2541726523766517</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.278727472758928</v>
+        <v>0.2797134977996856</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3108420869050815</v>
+        <v>0.3128937181995347</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3216038997997577</v>
+        <v>0.3227502951359182</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2313324871756718</v>
+        <v>0.2308379866226156</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2756466952234975</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2019829056737881</v>
+        <v>0.2019829056737882</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1838845090834909</v>
+        <v>0.1814362884248676</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2024305824860206</v>
+        <v>0.2038896705418178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.196844358804273</v>
+        <v>0.2018333931544627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1558337796366981</v>
+        <v>0.1543626815492225</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2548244648933806</v>
+        <v>0.2592272733879611</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2675112243411945</v>
+        <v>0.2654271527048271</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2884887393473167</v>
+        <v>0.2847625333885576</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1949799757998223</v>
+        <v>0.1944145807965279</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2303514690236471</v>
+        <v>0.2275671916845852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2439882963321213</v>
+        <v>0.2419204654762116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2546745061139416</v>
+        <v>0.25514458416523</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1842878378574722</v>
+        <v>0.1817814186103913</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2483396021068119</v>
+        <v>0.2472804149607802</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2681204127913103</v>
+        <v>0.2703753190954351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2625997606599663</v>
+        <v>0.2629122792057648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2148257324881847</v>
+        <v>0.2155210945035925</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3244033372465517</v>
+        <v>0.3240013032106138</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3390625289841231</v>
+        <v>0.3365972984556426</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3562706238369664</v>
+        <v>0.3551635887858723</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2465761243148386</v>
+        <v>0.2468487011515779</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2780061984496175</v>
+        <v>0.2750704534622186</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2905846740108404</v>
+        <v>0.294003310962406</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3007138563944571</v>
+        <v>0.3016100592227743</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2232355669982816</v>
+        <v>0.2226283306420074</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2677341892490794</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2567951602365658</v>
+        <v>0.2567951602365659</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1794639792889079</v>
+        <v>0.1850962828929049</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1729245313983428</v>
+        <v>0.1732137860243995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2082099627324953</v>
+        <v>0.2074953524080477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1941814931821236</v>
+        <v>0.1960387440170273</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2889651980604285</v>
+        <v>0.2845134289411218</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2887407446850789</v>
+        <v>0.2870803387894693</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2666698244648766</v>
+        <v>0.2686860772257458</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2643365340493248</v>
+        <v>0.2639162716740878</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2466019331271125</v>
+        <v>0.2445572958003203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2406740796624072</v>
+        <v>0.2420885701865974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2474106021398688</v>
+        <v>0.2466737743199027</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2391134993705334</v>
+        <v>0.2392349629793143</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.232474733829825</v>
+        <v>0.2340681684208894</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2261890351380865</v>
+        <v>0.2252183586230029</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2611763357398613</v>
+        <v>0.2637359866530091</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2498110123512198</v>
+        <v>0.2510110258497134</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.348372136833873</v>
+        <v>0.3446050103858757</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3453750330659605</v>
+        <v>0.3486303731538408</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3243955100232379</v>
+        <v>0.3280456101726907</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3110622951844093</v>
+        <v>0.3093463701052244</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2862297666420809</v>
+        <v>0.2847979641479192</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2789913229583705</v>
+        <v>0.2817580940104892</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2872096466542781</v>
+        <v>0.2898226041174391</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2740949138034992</v>
+        <v>0.2745551600442712</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.213068332819452</v>
+        <v>0.2132870130301244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2384655859494653</v>
+        <v>0.236723305624933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1814564610639708</v>
+        <v>0.1827995328503909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.308677831206502</v>
+        <v>0.3103808066211563</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.313264744980591</v>
+        <v>0.3116276184714611</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2368081250021007</v>
+        <v>0.2362203684372849</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.265808614686605</v>
+        <v>0.2671231772808317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2799963819991649</v>
+        <v>0.2798574871971083</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2134275925074683</v>
+        <v>0.2135745055365964</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2434262325727269</v>
+        <v>0.2444543294601124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2679011602449023</v>
+        <v>0.2664725960553062</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2094255985807232</v>
+        <v>0.211750600881779</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.342382894504774</v>
+        <v>0.3414555016624367</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3446118315934932</v>
+        <v>0.3437669903037969</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2609000281379457</v>
+        <v>0.2621391441648098</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2890686825286609</v>
+        <v>0.2901135118398164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3021809935252113</v>
+        <v>0.302632957145449</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2315648510105043</v>
+        <v>0.2328806131976555</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>108765</v>
+        <v>107410</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>154929</v>
+        <v>155289</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>170373</v>
+        <v>170853</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>101600</v>
+        <v>102318</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>190042</v>
+        <v>190654</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>210423</v>
+        <v>212547</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>222751</v>
+        <v>224424</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>163102</v>
+        <v>161227</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>306910</v>
+        <v>308600</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>381323</v>
+        <v>383554</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>411238</v>
+        <v>405358</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>275982</v>
+        <v>272948</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>148183</v>
+        <v>147842</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>205696</v>
+        <v>203117</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>216699</v>
+        <v>217950</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>141578</v>
+        <v>142501</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>239139</v>
+        <v>239835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>260240</v>
+        <v>265162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>274421</v>
+        <v>275825</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>200685</v>
+        <v>198738</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>374908</v>
+        <v>373654</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>453557</v>
+        <v>453039</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>478973</v>
+        <v>475749</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>330285</v>
+        <v>331061</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>166602</v>
+        <v>168864</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>213312</v>
+        <v>210630</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>237613</v>
+        <v>238430</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>176256</v>
+        <v>178817</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>277745</v>
+        <v>278135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>326242</v>
+        <v>326812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>324030</v>
+        <v>325073</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>221172</v>
+        <v>222317</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>461181</v>
+        <v>460430</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>551039</v>
+        <v>551596</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>578665</v>
+        <v>581338</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>412876</v>
+        <v>412334</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>219177</v>
+        <v>219066</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>268498</v>
+        <v>264477</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>296609</v>
+        <v>298185</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>230990</v>
+        <v>234998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>337923</v>
+        <v>340305</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>386398</v>
+        <v>385899</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>387263</v>
+        <v>389957</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>269667</v>
+        <v>271941</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>537719</v>
+        <v>539621</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>636908</v>
+        <v>641112</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>664223</v>
+        <v>666590</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>490153</v>
+        <v>489105</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>124596</v>
+        <v>122937</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>152161</v>
+        <v>153257</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>149514</v>
+        <v>153303</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>125005</v>
+        <v>123825</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>174259</v>
+        <v>177270</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>207613</v>
+        <v>205996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>226467</v>
+        <v>223542</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>158374</v>
+        <v>157915</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>313604</v>
+        <v>309814</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>372756</v>
+        <v>369596</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>393361</v>
+        <v>394087</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>297519</v>
+        <v>293473</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>168269</v>
+        <v>167551</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>201538</v>
+        <v>203232</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>199458</v>
+        <v>199696</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>172326</v>
+        <v>172884</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>221840</v>
+        <v>221565</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>263144</v>
+        <v>261230</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>279676</v>
+        <v>278807</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>200284</v>
+        <v>200505</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>378482</v>
+        <v>374485</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>443944</v>
+        <v>449166</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>464471</v>
+        <v>465856</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>360397</v>
+        <v>359417</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>168784</v>
+        <v>174081</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>162881</v>
+        <v>163153</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>195211</v>
+        <v>194541</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>192122</v>
+        <v>193960</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>299830</v>
+        <v>295211</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>301900</v>
+        <v>300164</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>278344</v>
+        <v>280449</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>295110</v>
+        <v>294641</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>487800</v>
+        <v>483756</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>478338</v>
+        <v>481149</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>490206</v>
+        <v>488746</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>503529</v>
+        <v>503784</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>218639</v>
+        <v>220138</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>213052</v>
+        <v>212137</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>244870</v>
+        <v>247270</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>247162</v>
+        <v>248349</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>361471</v>
+        <v>357562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>361115</v>
+        <v>364519</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>338597</v>
+        <v>342407</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>347276</v>
+        <v>345360</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>566187</v>
+        <v>563355</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>554493</v>
+        <v>559992</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>569062</v>
+        <v>574239</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>577193</v>
+        <v>578162</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>727173</v>
+        <v>727919</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>809436</v>
+        <v>803522</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>640757</v>
+        <v>645500</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1094954</v>
+        <v>1100995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1110380</v>
+        <v>1104577</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>883443</v>
+        <v>881250</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1850055</v>
+        <v>1859204</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1942865</v>
+        <v>1941901</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1549871</v>
+        <v>1550938</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>830780</v>
+        <v>834289</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>909350</v>
+        <v>904501</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>739521</v>
+        <v>747731</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1214514</v>
+        <v>1211224</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1221491</v>
+        <v>1218497</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>973320</v>
+        <v>977943</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2011947</v>
+        <v>2019219</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2096801</v>
+        <v>2099937</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1681581</v>
+        <v>1691136</v>
       </c>
     </row>
     <row r="24">
